--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603842.2359223906</v>
+        <v>601141.0192709333</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>161.5206846150008</v>
+        <v>221.0427070190021</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>36.59768736719387</v>
+        <v>104.3766310120714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>68.05955538367333</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -871,13 +871,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>11.49411350492752</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>356.3265794398755</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.687727815432</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>114.4079108312927</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.687727815432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951726</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713863</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>165.4946697765273</v>
       </c>
       <c r="X6" t="n">
-        <v>179.0529305488731</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.4561939652615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.9176563786554</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>153.5248058107193</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>363.5377921948941</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.47064484784885</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>314.0438761565938</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.6434959374224</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474039</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>33.44272975149158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>114.2173032139423</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695462</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986301</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936172</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>71.79687029691101</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F22" t="n">
-        <v>111.3213230702129</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>241.3492586655821</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>158.2081142387084</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2811815126429451</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.972649747165</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>218.7872342765195</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0177171766864</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969017</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739746</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="D2" t="n">
-        <v>574.0438072739746</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067967</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="F2" t="n">
-        <v>300.7206499575932</v>
+        <v>627.2215614783078</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>444.8797293793789</v>
+        <v>275.4624604776055</v>
       </c>
       <c r="C3" t="n">
-        <v>444.8797293793789</v>
+        <v>275.4624604776055</v>
       </c>
       <c r="D3" t="n">
-        <v>295.9453197181276</v>
+        <v>126.5280508163542</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V3" t="n">
-        <v>652.7312295849117</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="W3" t="n">
-        <v>652.7312295849117</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="X3" t="n">
-        <v>444.8797293793789</v>
+        <v>483.2227592425594</v>
       </c>
       <c r="Y3" t="n">
-        <v>444.8797293793789</v>
+        <v>275.4624604776055</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>986.1084943659507</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>779.3214597764621</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="U4" t="n">
-        <v>482.1967053476902</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="V4" t="n">
-        <v>482.1967053476902</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425.2038804041673</v>
+        <v>410.1107921235748</v>
       </c>
       <c r="C5" t="n">
-        <v>425.2038804041673</v>
+        <v>410.1107921235748</v>
       </c>
       <c r="D5" t="n">
-        <v>425.2038804041673</v>
+        <v>410.1107921235748</v>
       </c>
       <c r="E5" t="n">
-        <v>425.2038804041673</v>
+        <v>50.18495430551867</v>
       </c>
       <c r="F5" t="n">
-        <v>418.2583796549638</v>
+        <v>43.2394535563152</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275169</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245567</v>
+        <v>239.0325989245559</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825643</v>
+        <v>456.149911482563</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748877</v>
+        <v>729.4041931748856</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189413</v>
+        <v>1446.535482189409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261728</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261728</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398246</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="V5" t="n">
-        <v>1165.535897104011</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="W5" t="n">
-        <v>812.7672418338966</v>
+        <v>783.5765503846546</v>
       </c>
       <c r="X5" t="n">
-        <v>812.7672418338966</v>
+        <v>410.1107921235748</v>
       </c>
       <c r="Y5" t="n">
-        <v>425.2038804041673</v>
+        <v>410.1107921235748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598.2932076300956</v>
+        <v>351.6826054794765</v>
       </c>
       <c r="C6" t="n">
-        <v>598.2932076300956</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="D6" t="n">
-        <v>449.3587979688443</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3587979688443</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8242399957293</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878736</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563444</v>
+        <v>174.2721860626389</v>
       </c>
       <c r="K6" t="n">
-        <v>388.960066510144</v>
+        <v>284.4686930039493</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414963</v>
+        <v>478.9640368353012</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122426</v>
+        <v>829.7791710122397</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584465</v>
+        <v>1097.031033584462</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749984</v>
+        <v>1319.29448074998</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948673</v>
+        <v>1478.347425948668</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261728</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655823</v>
+        <v>1385.878273152067</v>
       </c>
       <c r="T6" t="n">
-        <v>1390.282497655823</v>
+        <v>1189.973630703751</v>
       </c>
       <c r="U6" t="n">
-        <v>1390.282497655823</v>
+        <v>961.8525470243553</v>
       </c>
       <c r="V6" t="n">
-        <v>1155.13038942408</v>
+        <v>726.7004387926127</v>
       </c>
       <c r="W6" t="n">
-        <v>1155.13038942408</v>
+        <v>559.5341056850093</v>
       </c>
       <c r="X6" t="n">
-        <v>974.2688434151175</v>
+        <v>351.6826054794765</v>
       </c>
       <c r="Y6" t="n">
-        <v>766.5085446501637</v>
+        <v>351.6826054794765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9435113471859</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="C7" t="n">
-        <v>498.007328419279</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="D7" t="n">
-        <v>347.8906890069433</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="E7" t="n">
-        <v>347.8906890069433</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="F7" t="n">
-        <v>201.0007415090329</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223269</v>
+        <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830393</v>
+        <v>375.1387655830388</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388159</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974833</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495185</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="T7" t="n">
-        <v>1009.53527837173</v>
+        <v>806.0266324061178</v>
       </c>
       <c r="U7" t="n">
-        <v>1009.53527837173</v>
+        <v>574.796676468082</v>
       </c>
       <c r="V7" t="n">
-        <v>1009.53527837173</v>
+        <v>320.1121882621951</v>
       </c>
       <c r="W7" t="n">
-        <v>1009.53527837173</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="X7" t="n">
-        <v>781.5457274737126</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="Y7" t="n">
-        <v>781.5457274737126</v>
+        <v>30.69501822523446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1099.386652222403</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.125824262336</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.986492286524</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4990,22 +4990,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.23396574994</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>1337.23396574994</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>1116.44138660641</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.758078126541</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.795561186129</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="D11" t="n">
-        <v>927.5298625793785</v>
+        <v>1127.224630526825</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793785</v>
+        <v>741.4363779285814</v>
       </c>
       <c r="F11" t="n">
-        <v>516.543957789771</v>
+        <v>741.4363779285812</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>326.8206133697267</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464064</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498929</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155358</v>
+        <v>2988.463914704703</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885244</v>
+        <v>2635.695259434589</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624164</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648352</v>
+        <v>1872.090169197698</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>488.5008422034049</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>996.4574081599335</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.4843249465082</v>
+        <v>365.760805558377</v>
       </c>
       <c r="C13" t="n">
-        <v>539.5481420186013</v>
+        <v>196.8246226304701</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126699</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920812</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.914919818295</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.925368920278</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>890.1327897767479</v>
+        <v>365.760805558377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>465.5282911402532</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402532</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557278</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278209</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859675</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622265</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219831</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>597.2570777219831</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>240.7066105458821</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038341</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.291686000759</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.607197794872</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6218,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N27" t="n">
         <v>1318.79311422913</v>
@@ -6321,10 +6321,10 @@
         <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.5507239167111</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888043</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154065</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,16 +6774,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>533.5582272005026</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>923.2869892719397</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>702.4944101284095</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908937</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908937</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908937</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.853600740072</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>513.853600740072</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>513.853600740072</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138419</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703117</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636988</v>
+        <v>34.43939438637014</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>231.6378772658574</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>105.5468419254472</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111067</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.68996550688678</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>67.33400740195228</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080843</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>253.0802685850994</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.125942118609183e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>53.02951788468555</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624204</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295201</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6085800303773</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295133</v>
       </c>
       <c r="F22" t="n">
-        <v>34.09972495271835</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>44.83521572366205</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.62386594322894</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>285.9032928766012</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864988</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>6.922421112517696</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>36.41624546988272</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038658</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926105.6027482047</v>
+        <v>926105.6027482053</v>
       </c>
     </row>
     <row r="6">
@@ -26314,13 +26314,13 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371981</v>
+        <v>366294.6221371983</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
@@ -26329,10 +26329,10 @@
         <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
         <v>403573.299845003</v>
@@ -26350,10 +26350,10 @@
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.219065708</v>
+        <v>132804.2190657067</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929367</v>
+        <v>265413.0723929378</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417446</v>
+        <v>30877.4292641742</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049544</v>
+        <v>65018.34502049575</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273075</v>
+        <v>81897.403712731</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.57413202341</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664852</v>
+        <v>215494.7982664855</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
-        <v>11061.61369214697</v>
+        <v>11061.61369214698</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26451,10 +26451,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.650386675</v>
+        <v>72593.65038667491</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583842.2644823375</v>
+        <v>-583842.2644823376</v>
       </c>
       <c r="C6" t="n">
-        <v>-10371.78278672652</v>
+        <v>-10371.78278672567</v>
       </c>
       <c r="D6" t="n">
-        <v>-88168.64373810051</v>
+        <v>-88168.64373810156</v>
       </c>
       <c r="E6" t="n">
-        <v>-43481.63397691191</v>
+        <v>-43702.76529088729</v>
       </c>
       <c r="F6" t="n">
-        <v>101975.4689988734</v>
+        <v>101940.7310734386</v>
       </c>
       <c r="G6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438666</v>
       </c>
       <c r="H6" t="n">
-        <v>291283.7377693026</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="I6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438669</v>
       </c>
       <c r="J6" t="n">
-        <v>222284.5833501883</v>
+        <v>222249.8454247526</v>
       </c>
       <c r="K6" t="n">
-        <v>260406.3085051278</v>
+        <v>260371.5705796924</v>
       </c>
       <c r="L6" t="n">
-        <v>226265.3927488069</v>
+        <v>226230.6548233709</v>
       </c>
       <c r="M6" t="n">
-        <v>209386.3340565716</v>
+        <v>209351.5961311356</v>
       </c>
       <c r="N6" t="n">
-        <v>241444.1636372787</v>
+        <v>241409.4257118433</v>
       </c>
       <c r="O6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="P6" t="n">
-        <v>291283.7377693024</v>
+        <v>291248.9998438667</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695755</v>
+        <v>717.3319511695746</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815432</v>
+        <v>383.6877278154308</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.22082394901</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000973</v>
+        <v>103.2769374000962</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479636</v>
+        <v>216.7329409479645</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.9738478139246</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846069</v>
+        <v>256.8971042846081</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489711</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846069</v>
+        <v>256.8971042846081</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489711</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.9738478139246</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846069</v>
+        <v>256.8971042846081</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489711</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3134900307091</v>
+        <v>191.7914676267079</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.0473930882071</v>
+        <v>53.26844944332957</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.44504749999059</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>274.76451699775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>25.60379063238628</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233794</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863681</v>
+        <v>99.30025118863695</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>213.3443476388422</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840621617</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713749</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>86.2003133843923</v>
       </c>
       <c r="X6" t="n">
-        <v>26.72005465460441</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.37578621667583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643578</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>57.33081573673681</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>211.7480859602883</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>6.193308483574981</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.3613353340884</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.786932824787932e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-3.264420350789138e-13</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28959,13 +28959,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.063298011819521e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.890043677121866e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365126</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5331692257906</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023594</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952474</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791145</v>
+        <v>506.3606591791138</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284032</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974787</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562771</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020787</v>
+        <v>65.71337422020778</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189782</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438664</v>
+        <v>335.014323043866</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874186</v>
+        <v>390.9459133874181</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189119</v>
+        <v>401.2930884189114</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348676</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392938</v>
+        <v>95.79765189392927</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989054</v>
+        <v>6.219132670989046</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257206</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402931</v>
+        <v>91.4539440040292</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565113</v>
+        <v>58.16268574565106</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060662</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864685</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>156.4572543240549</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>225.1169475382831</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900725</v>
+        <v>63.70847814900694</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573788</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252602</v>
+        <v>219.3104167252596</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518418</v>
+        <v>276.0144259518411</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318123</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.780637975792</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010075</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243896</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959584</v>
+        <v>145.0274422600045</v>
       </c>
       <c r="K6" t="n">
-        <v>342.9474802368783</v>
+        <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639922</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654003</v>
+        <v>354.358721390847</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355786</v>
+        <v>269.9513763355781</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904231</v>
+        <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047356</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793442</v>
+        <v>56.97321748793416</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491152</v>
+        <v>22.15508137491138</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>17.90287454418073</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309383863</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066242</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
